--- a/NC State Senate/SD27/Results.xlsx
+++ b/NC State Senate/SD27/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F1BDA3-2F79-431B-9B21-A6AF7A94AC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA688B5C-46CB-4F42-BF28-CAFE8680C8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD26" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="2016 Results" sheetId="7" r:id="rId5"/>
     <sheet name="2012 Guilford" sheetId="6" r:id="rId6"/>
     <sheet name="2012 Results" sheetId="8" r:id="rId7"/>
+    <sheet name="2016 Gov Guilford" sheetId="12" r:id="rId8"/>
+    <sheet name="2016 Gov Results" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SD27'!$B$1:$C$865042</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="176">
   <si>
     <t>Precinct</t>
   </si>
@@ -1845,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC422C-64D3-49F8-AD9F-31E510DBF711}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8351,7 +8353,7 @@
         <v>53043.754373702286</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D67:D69" si="6">B69+C69</f>
+        <f t="shared" ref="D69" si="6">B69+C69</f>
         <v>107022.05759793421</v>
       </c>
       <c r="E69" s="3">
@@ -11220,7 +11222,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13003,7 +13005,7 @@
         <v>56112.916322432597</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D67:D69" si="6">B69+C69</f>
+        <f t="shared" ref="D69" si="6">B69+C69</f>
         <v>106190.27575206173</v>
       </c>
       <c r="E69" s="3">
@@ -13017,6 +13019,4163 @@
       <c r="G69" s="3">
         <f t="shared" si="5"/>
         <v>-5.6837190129306915E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B35A6-80D4-4F86-AFC4-1E335EF91563}">
+  <dimension ref="A1:D166"/>
+  <sheetViews>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161:D164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>1145.7979773047618</v>
+      </c>
+      <c r="C2">
+        <v>698.50868526066449</v>
+      </c>
+      <c r="D2">
+        <v>1892.9815782009721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>873.75944606470807</v>
+      </c>
+      <c r="C3">
+        <v>676.33380636350057</v>
+      </c>
+      <c r="D3">
+        <v>1586.5994391548679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>784.76542840996933</v>
+      </c>
+      <c r="C4">
+        <v>591.66608693796547</v>
+      </c>
+      <c r="D4">
+        <v>1401.7830339081147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1256.0292037180179</v>
+      </c>
+      <c r="C5">
+        <v>834.58180576598886</v>
+      </c>
+      <c r="D5">
+        <v>2122.0468924986299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>2004.3879885419576</v>
+      </c>
+      <c r="C6">
+        <v>738.82664689187175</v>
+      </c>
+      <c r="D6">
+        <v>2797.9739155238181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>562.28038427312231</v>
+      </c>
+      <c r="C7">
+        <v>881.9554106826572</v>
+      </c>
+      <c r="D7">
+        <v>1473.6435564855883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>1875.953440335687</v>
+      </c>
+      <c r="C8">
+        <v>904.13028957982124</v>
+      </c>
+      <c r="D8">
+        <v>2838.8992529751258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>831.28502854767362</v>
+      </c>
+      <c r="C9">
+        <v>844.66129617379056</v>
+      </c>
+      <c r="D9">
+        <v>1727.6634225842313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>694.76011510006299</v>
+      </c>
+      <c r="C10">
+        <v>530.1811954503745</v>
+      </c>
+      <c r="D10">
+        <v>1251.3068898530246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>564.30297558345728</v>
+      </c>
+      <c r="C11">
+        <v>594.68993406030609</v>
+      </c>
+      <c r="D11">
+        <v>1186.3725496887578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>780.72024578929938</v>
+      </c>
+      <c r="C12">
+        <v>713.62792087236721</v>
+      </c>
+      <c r="D12">
+        <v>1542.009021554805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>470.25247965288111</v>
+      </c>
+      <c r="C13">
+        <v>587.63429077484477</v>
+      </c>
+      <c r="D13">
+        <v>1089.3226534423491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>814.09300240982634</v>
+      </c>
+      <c r="C14">
+        <v>77.612076140073839</v>
+      </c>
+      <c r="D14">
+        <v>909.95817191322976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>599.69832351431933</v>
+      </c>
+      <c r="C15">
+        <v>225.78058513476026</v>
+      </c>
+      <c r="D15">
+        <v>830.54921236111556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>1236.8145862698357</v>
+      </c>
+      <c r="C16">
+        <v>88.699515588655814</v>
+      </c>
+      <c r="D16">
+        <v>1339.7109522521923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>1145.7979773047618</v>
+      </c>
+      <c r="C17">
+        <v>98.779005996457613</v>
+      </c>
+      <c r="D17">
+        <v>1258.7738336949203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <v>1014.3295421329886</v>
+      </c>
+      <c r="C18">
+        <v>80.63592326241438</v>
+      </c>
+      <c r="D18">
+        <v>1104.0920120770679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19">
+        <v>1018.3747247536586</v>
+      </c>
+      <c r="C19">
+        <v>39.310012590427007</v>
+      </c>
+      <c r="D19">
+        <v>1069.8534662529719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>940.50495930576221</v>
+      </c>
+      <c r="C20">
+        <v>312.46420264185571</v>
+      </c>
+      <c r="D20">
+        <v>1286.4331664470556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>1222.6564470974909</v>
+      </c>
+      <c r="C21">
+        <v>341.69472482448094</v>
+      </c>
+      <c r="D21">
+        <v>1592.7448727093733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <v>1629.1973004748202</v>
+      </c>
+      <c r="C22">
+        <v>305.40855935639445</v>
+      </c>
+      <c r="D22">
+        <v>1966.0417428458379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>1527.0564393029042</v>
+      </c>
+      <c r="C23">
+        <v>330.60728537589893</v>
+      </c>
+      <c r="D23">
+        <v>1891.1277291782408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24">
+        <v>906.12090703006766</v>
+      </c>
+      <c r="C24">
+        <v>225.78058513476026</v>
+      </c>
+      <c r="D24">
+        <v>1153.1967677553791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25">
+        <v>718.01991516891519</v>
+      </c>
+      <c r="C25">
+        <v>151.19235611702695</v>
+      </c>
+      <c r="D25">
+        <v>890.50754687649339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>869.71426344403812</v>
+      </c>
+      <c r="C26">
+        <v>284.24162950001067</v>
+      </c>
+      <c r="D26">
+        <v>1180.3214722466359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
+        <v>735.21194130676247</v>
+      </c>
+      <c r="C27">
+        <v>230.82033033866117</v>
+      </c>
+      <c r="D27">
+        <v>987.32754723597486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>813.08170675465885</v>
+      </c>
+      <c r="C28">
+        <v>261.05880156206655</v>
+      </c>
+      <c r="D28">
+        <v>1105.5763913313485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29">
+        <v>768.58469792728954</v>
+      </c>
+      <c r="C29">
+        <v>457.60886451420157</v>
+      </c>
+      <c r="D29">
+        <v>1238.3622913503775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30">
+        <v>753.41526309977723</v>
+      </c>
+      <c r="C30">
+        <v>521.10965408335289</v>
+      </c>
+      <c r="D30">
+        <v>1310.0170431673821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31">
+        <v>572.39334082479718</v>
+      </c>
+      <c r="C31">
+        <v>532.19709353193491</v>
+      </c>
+      <c r="D31">
+        <v>1116.7591632656186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32">
+        <v>673.52290634154576</v>
+      </c>
+      <c r="C32">
+        <v>520.10170504257269</v>
+      </c>
+      <c r="D32">
+        <v>1215.9339477170768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>1061.8604379258604</v>
+      </c>
+      <c r="C33">
+        <v>789.2240989308807</v>
+      </c>
+      <c r="D33">
+        <v>1896.7172702650651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>1505.819230544387</v>
+      </c>
+      <c r="C34">
+        <v>992.82980516847704</v>
+      </c>
+      <c r="D34">
+        <v>2541.2395868939666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>732.17805434126001</v>
+      </c>
+      <c r="C35">
+        <v>684.39739868974198</v>
+      </c>
+      <c r="D35">
+        <v>1439.8988501063675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>673.52290634154576</v>
+      </c>
+      <c r="C36">
+        <v>366.89345084398542</v>
+      </c>
+      <c r="D36">
+        <v>1073.8803616849686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>675.54549765188074</v>
+      </c>
+      <c r="C37">
+        <v>239.89187170568277</v>
+      </c>
+      <c r="D37">
+        <v>935.71858420570754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38">
+        <v>957.69698544360938</v>
+      </c>
+      <c r="C38">
+        <v>479.78374341136555</v>
+      </c>
+      <c r="D38">
+        <v>1468.9166118695982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>1789.9933096464506</v>
+      </c>
+      <c r="C39">
+        <v>473.7360491666845</v>
+      </c>
+      <c r="D39">
+        <v>2304.291788509423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>1292.4358473040475</v>
+      </c>
+      <c r="C40">
+        <v>952.51184353726978</v>
+      </c>
+      <c r="D40">
+        <v>2293.6226064768625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41">
+        <v>556.21261034211739</v>
+      </c>
+      <c r="C41">
+        <v>288.27342566313138</v>
+      </c>
+      <c r="D41">
+        <v>874.9078582774647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <v>822.18336765116624</v>
+      </c>
+      <c r="C42">
+        <v>377.98089029256738</v>
+      </c>
+      <c r="D42">
+        <v>1231.6001409583569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>697.79400206556545</v>
+      </c>
+      <c r="C43">
+        <v>684.39739868974198</v>
+      </c>
+      <c r="D43">
+        <v>1418.6975874819664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>673.52290634154576</v>
+      </c>
+      <c r="C44">
+        <v>460.63271163654213</v>
+      </c>
+      <c r="D44">
+        <v>1178.7742906440046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45">
+        <v>1150.8544555805993</v>
+      </c>
+      <c r="C45">
+        <v>888.00310492733831</v>
+      </c>
+      <c r="D45">
+        <v>2059.1387753560816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <v>752.40396744460975</v>
+      </c>
+      <c r="C46">
+        <v>617.87276199825021</v>
+      </c>
+      <c r="D46">
+        <v>1390.5579442910039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47">
+        <v>863.6464895130332</v>
+      </c>
+      <c r="C47">
+        <v>658.19072362945735</v>
+      </c>
+      <c r="D47">
+        <v>1552.2590354147064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48">
+        <v>653.29699323819614</v>
+      </c>
+      <c r="C48">
+        <v>395.11602398583045</v>
+      </c>
+      <c r="D48">
+        <v>1056.5255031632842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49">
+        <v>938.48236799542724</v>
+      </c>
+      <c r="C49">
+        <v>434.42603657625745</v>
+      </c>
+      <c r="D49">
+        <v>1397.2458623894574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50">
+        <v>1380.4185693036186</v>
+      </c>
+      <c r="C50">
+        <v>379.99678837412773</v>
+      </c>
+      <c r="D50">
+        <v>1818.2168199949565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51">
+        <v>1179.1707339252889</v>
+      </c>
+      <c r="C51">
+        <v>660.20662171101776</v>
+      </c>
+      <c r="D51">
+        <v>1873.8554208781513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52">
+        <v>771.618584892792</v>
+      </c>
+      <c r="C52">
+        <v>362.86165468086472</v>
+      </c>
+      <c r="D52">
+        <v>1154.7614544218006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53">
+        <v>739.25712392743242</v>
+      </c>
+      <c r="C53">
+        <v>527.157348328034</v>
+      </c>
+      <c r="D53">
+        <v>1293.7941123004609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>557.22390599728487</v>
+      </c>
+      <c r="C54">
+        <v>337.66292866136018</v>
+      </c>
+      <c r="D54">
+        <v>920.23835321882507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55">
+        <v>644.19533234168875</v>
+      </c>
+      <c r="C55">
+        <v>469.70425300356374</v>
+      </c>
+      <c r="D55">
+        <v>1142.293286132654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>686.66974985872309</v>
+      </c>
+      <c r="C56">
+        <v>427.37039329079619</v>
+      </c>
+      <c r="D56">
+        <v>1145.4760261641425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>779.7089501341319</v>
+      </c>
+      <c r="C57">
+        <v>568.48325900002135</v>
+      </c>
+      <c r="D57">
+        <v>1381.6562136335908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>858.59001123719577</v>
+      </c>
+      <c r="C58">
+        <v>658.19072362945735</v>
+      </c>
+      <c r="D58">
+        <v>1550.2447393660907</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>270.0159399297188</v>
+      </c>
+      <c r="C59">
+        <v>172.35928597341072</v>
+      </c>
+      <c r="D59">
+        <v>449.47365109997986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>1377.3846823381161</v>
+      </c>
+      <c r="C60">
+        <v>492.88708094150786</v>
+      </c>
+      <c r="D60">
+        <v>1915.9044966879478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61">
+        <v>1344.0119257175891</v>
+      </c>
+      <c r="C61">
+        <v>238.8839226649026</v>
+      </c>
+      <c r="D61">
+        <v>1629.542642533223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62">
+        <v>2362.3866504712478</v>
+      </c>
+      <c r="C62">
+        <v>346.73447002838185</v>
+      </c>
+      <c r="D62">
+        <v>2778.0772509833191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63">
+        <v>1752.5753704052536</v>
+      </c>
+      <c r="C63">
+        <v>100.79490407801798</v>
+      </c>
+      <c r="D63">
+        <v>1890.8905219523378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64">
+        <v>1518.9660740615643</v>
+      </c>
+      <c r="C64">
+        <v>259.0429034805062</v>
+      </c>
+      <c r="D64">
+        <v>1830.740136147245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65">
+        <v>1757.631848681091</v>
+      </c>
+      <c r="C65">
+        <v>390.07627878192955</v>
+      </c>
+      <c r="D65">
+        <v>2209.5658327498595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66">
+        <v>679.59068027255069</v>
+      </c>
+      <c r="C66">
+        <v>125.99363009752247</v>
+      </c>
+      <c r="D66">
+        <v>827.89364670303155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67">
+        <v>1589.7567699232884</v>
+      </c>
+      <c r="C67">
+        <v>329.59933633511878</v>
+      </c>
+      <c r="D67">
+        <v>1974.115386348396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68">
+        <v>830.27373289250613</v>
+      </c>
+      <c r="C68">
+        <v>328.59138729433857</v>
+      </c>
+      <c r="D68">
+        <v>1189.2869424590606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69">
+        <v>1144.7866816495944</v>
+      </c>
+      <c r="C69">
+        <v>131.03337530142338</v>
+      </c>
+      <c r="D69">
+        <v>1300.1575147687904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70">
+        <v>1862.8065968185097</v>
+      </c>
+      <c r="C70">
+        <v>160.26389748404858</v>
+      </c>
+      <c r="D70">
+        <v>2046.3938913779239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71">
+        <v>1595.8245438542933</v>
+      </c>
+      <c r="C71">
+        <v>207.63750240071701</v>
+      </c>
+      <c r="D71">
+        <v>1840.9822937240767</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72">
+        <v>1520.9886653718993</v>
+      </c>
+      <c r="C72">
+        <v>300.36881415249354</v>
+      </c>
+      <c r="D72">
+        <v>1854.8214840238304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73">
+        <v>945.56143758159953</v>
+      </c>
+      <c r="C73">
+        <v>252.99520923582512</v>
+      </c>
+      <c r="D73">
+        <v>1222.8941046351974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74">
+        <v>1132.6511337875845</v>
+      </c>
+      <c r="C74">
+        <v>258.03495443972599</v>
+      </c>
+      <c r="D74">
+        <v>1406.9110601058255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75">
+        <v>1286.3680733730425</v>
+      </c>
+      <c r="C75">
+        <v>201.58980815603596</v>
+      </c>
+      <c r="D75">
+        <v>1514.3234608316657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>788.81061103063928</v>
+      </c>
+      <c r="C76">
+        <v>196.55006295213505</v>
+      </c>
+      <c r="D76">
+        <v>1007.6700103157327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77">
+        <v>906.12090703006766</v>
+      </c>
+      <c r="C77">
+        <v>271.13829196986836</v>
+      </c>
+      <c r="D77">
+        <v>1219.8497501810384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78">
+        <v>1090.1767162705501</v>
+      </c>
+      <c r="C78">
+        <v>262.06675060284675</v>
+      </c>
+      <c r="D78">
+        <v>1391.7918358272775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>648.2405149623587</v>
+      </c>
+      <c r="C79">
+        <v>327.58343825355843</v>
+      </c>
+      <c r="D79">
+        <v>1005.2317147457259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80">
+        <v>938.48236799542724</v>
+      </c>
+      <c r="C80">
+        <v>425.35449520923584</v>
+      </c>
+      <c r="D80">
+        <v>1393.2446247344719</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>1401.6557780621358</v>
+      </c>
+      <c r="C81">
+        <v>391.08422782270975</v>
+      </c>
+      <c r="D81">
+        <v>1838.3727392931696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>1139.7302033737569</v>
+      </c>
+      <c r="C82">
+        <v>554.37197242909883</v>
+      </c>
+      <c r="D82">
+        <v>1744.8052129232158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>1089.1654206153826</v>
+      </c>
+      <c r="C83">
+        <v>674.31790828194028</v>
+      </c>
+      <c r="D83">
+        <v>1813.1723052752754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84">
+        <v>977.92289854695912</v>
+      </c>
+      <c r="C84">
+        <v>29.230522182625212</v>
+      </c>
+      <c r="D84">
+        <v>1029.4627570625428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85">
+        <v>1283.3341864075401</v>
+      </c>
+      <c r="C85">
+        <v>41.325910671987366</v>
+      </c>
+      <c r="D85">
+        <v>1346.9694334124858</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86">
+        <v>1381.4298649587861</v>
+      </c>
+      <c r="C86">
+        <v>130.02542626064317</v>
+      </c>
+      <c r="D86">
+        <v>1540.863052749238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87">
+        <v>1492.6723870272097</v>
+      </c>
+      <c r="C87">
+        <v>54.429248202129706</v>
+      </c>
+      <c r="D87">
+        <v>1573.4672145319264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88">
+        <v>1457.2770390963476</v>
+      </c>
+      <c r="C88">
+        <v>56.445146283690065</v>
+      </c>
+      <c r="D88">
+        <v>1539.0737039402177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89">
+        <v>1436.0398303378304</v>
+      </c>
+      <c r="C89">
+        <v>105.83464928191887</v>
+      </c>
+      <c r="D89">
+        <v>1567.2259981799293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90">
+        <v>1050.7361857190181</v>
+      </c>
+      <c r="C90">
+        <v>27.214624101064853</v>
+      </c>
+      <c r="D90">
+        <v>1088.0914172441549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91">
+        <v>1506.8305261995545</v>
+      </c>
+      <c r="C91">
+        <v>49.389502998228807</v>
+      </c>
+      <c r="D91">
+        <v>1570.4168795914841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92">
+        <v>1136.6963164082545</v>
+      </c>
+      <c r="C92">
+        <v>112.89029256738013</v>
+      </c>
+      <c r="D92">
+        <v>1260.7412771421139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93">
+        <v>860.61260254753074</v>
+      </c>
+      <c r="C93">
+        <v>920.25747423230405</v>
+      </c>
+      <c r="D93">
+        <v>1825.4887494457516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94">
+        <v>437.89101868752152</v>
+      </c>
+      <c r="C94">
+        <v>1348.6358165638806</v>
+      </c>
+      <c r="D94">
+        <v>1831.145507917319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <v>753.41526309977723</v>
+      </c>
+      <c r="C95">
+        <v>312.46420264185571</v>
+      </c>
+      <c r="D95">
+        <v>1111.5121991499568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>503.62523627340812</v>
+      </c>
+      <c r="C96">
+        <v>533.20504257271512</v>
+      </c>
+      <c r="D96">
+        <v>1058.1255544366745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97">
+        <v>726.11028041025509</v>
+      </c>
+      <c r="C97">
+        <v>197.55801199291523</v>
+      </c>
+      <c r="D97">
+        <v>941.92138576649995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98">
+        <v>1009.2730638571512</v>
+      </c>
+      <c r="C98">
+        <v>534.21299161349521</v>
+      </c>
+      <c r="D98">
+        <v>1575.9359992276768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99">
+        <v>1135.685020753087</v>
+      </c>
+      <c r="C99">
+        <v>199.57391007447558</v>
+      </c>
+      <c r="D99">
+        <v>1374.8072997814434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>1243.8936558560081</v>
+      </c>
+      <c r="C100">
+        <v>710.60407375002671</v>
+      </c>
+      <c r="D100">
+        <v>2002.158584499173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101">
+        <v>815.10429806499383</v>
+      </c>
+      <c r="C101">
+        <v>77.612076140073839</v>
+      </c>
+      <c r="D101">
+        <v>916.03977128043334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102">
+        <v>579.47241041096959</v>
+      </c>
+      <c r="C102">
+        <v>61.484891487590964</v>
+      </c>
+      <c r="D102">
+        <v>650.08384858022532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103">
+        <v>927.35811578858488</v>
+      </c>
+      <c r="C103">
+        <v>50.397452039008989</v>
+      </c>
+      <c r="D103">
+        <v>999.05084341814506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>1247.938838476678</v>
+      </c>
+      <c r="C104">
+        <v>167.31954076950984</v>
+      </c>
+      <c r="D104">
+        <v>1439.5958370639605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105">
+        <v>962.75346371944681</v>
+      </c>
+      <c r="C105">
+        <v>170.34338789185037</v>
+      </c>
+      <c r="D105">
+        <v>1162.5046131411059</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106">
+        <v>657.34217585886597</v>
+      </c>
+      <c r="C106">
+        <v>229.81238129788099</v>
+      </c>
+      <c r="D106">
+        <v>918.59044017137012</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>612.84516703149666</v>
+      </c>
+      <c r="C107">
+        <v>668.27021403725917</v>
+      </c>
+      <c r="D107">
+        <v>1319.6496892802295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108">
+        <v>445.98138392886142</v>
+      </c>
+      <c r="C108">
+        <v>724.71536032094923</v>
+      </c>
+      <c r="D108">
+        <v>1180.8373516738827</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109">
+        <v>704.87307165173786</v>
+      </c>
+      <c r="C109">
+        <v>573.52300420392226</v>
+      </c>
+      <c r="D109">
+        <v>1311.8600803550976</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110">
+        <v>480.36543620455592</v>
+      </c>
+      <c r="C110">
+        <v>452.56911931030072</v>
+      </c>
+      <c r="D110">
+        <v>954.22983110540781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111">
+        <v>567.33686254895974</v>
+      </c>
+      <c r="C111">
+        <v>226.78853417554043</v>
+      </c>
+      <c r="D111">
+        <v>810.35036860301534</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112">
+        <v>1013.3182464778212</v>
+      </c>
+      <c r="C112">
+        <v>256.01905635816564</v>
+      </c>
+      <c r="D112">
+        <v>1291.6466391689451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>809.03652413398891</v>
+      </c>
+      <c r="C113">
+        <v>92.731311751776531</v>
+      </c>
+      <c r="D113">
+        <v>926.10529370353822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114">
+        <v>371.14550544646744</v>
+      </c>
+      <c r="C114">
+        <v>307.4244574379548</v>
+      </c>
+      <c r="D114">
+        <v>702.90742070219505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115">
+        <v>519.80596675608786</v>
+      </c>
+      <c r="C115">
+        <v>394.10807494505025</v>
+      </c>
+      <c r="D115">
+        <v>940.27962100372531</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>418.67640123933927</v>
+      </c>
+      <c r="C116">
+        <v>476.75989628902499</v>
+      </c>
+      <c r="D116">
+        <v>912.67533014928665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117">
+        <v>477.33154923905346</v>
+      </c>
+      <c r="C117">
+        <v>575.53890228548266</v>
+      </c>
+      <c r="D117">
+        <v>1092.4188204784168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>506.65912323891058</v>
+      </c>
+      <c r="C118">
+        <v>381.00473741490794</v>
+      </c>
+      <c r="D118">
+        <v>910.98725772918419</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>413.61992296350184</v>
+      </c>
+      <c r="C119">
+        <v>624.92840528371141</v>
+      </c>
+      <c r="D119">
+        <v>1062.885786064986</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120">
+        <v>811.05911544432388</v>
+      </c>
+      <c r="C120">
+        <v>947.47209833336899</v>
+      </c>
+      <c r="D120">
+        <v>1788.9530360499086</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121">
+        <v>1173.102959994284</v>
+      </c>
+      <c r="C121">
+        <v>1450.4386696826787</v>
+      </c>
+      <c r="D121">
+        <v>2673.2306060549154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122">
+        <v>770.60728923762451</v>
+      </c>
+      <c r="C122">
+        <v>789.2240989308807</v>
+      </c>
+      <c r="D122">
+        <v>1588.2250889559068</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123">
+        <v>1008.2617682019837</v>
+      </c>
+      <c r="C123">
+        <v>833.57385672520866</v>
+      </c>
+      <c r="D123">
+        <v>1900.65114798681</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124">
+        <v>556.21261034211739</v>
+      </c>
+      <c r="C124">
+        <v>556.38787051065924</v>
+      </c>
+      <c r="D124">
+        <v>1147.0785460946213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125">
+        <v>1317.7182386832344</v>
+      </c>
+      <c r="C125">
+        <v>862.80437890783389</v>
+      </c>
+      <c r="D125">
+        <v>2237.3100191658714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B126">
+        <v>936.45977668509227</v>
+      </c>
+      <c r="C126">
+        <v>535.22094065427541</v>
+      </c>
+      <c r="D126">
+        <v>1514.2712685204701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127">
+        <v>1149.8431599254318</v>
+      </c>
+      <c r="C127">
+        <v>644.07943705853484</v>
+      </c>
+      <c r="D127">
+        <v>1840.569391134698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>1004.2165855813138</v>
+      </c>
+      <c r="C128">
+        <v>1134.9506199184823</v>
+      </c>
+      <c r="D128">
+        <v>2187.8421211353416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129">
+        <v>688.69234116905807</v>
+      </c>
+      <c r="C129">
+        <v>721.69151319860873</v>
+      </c>
+      <c r="D129">
+        <v>1430.6650692158107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130">
+        <v>667.45513241054084</v>
+      </c>
+      <c r="C130">
+        <v>770.07306715605728</v>
+      </c>
+      <c r="D130">
+        <v>1469.9781433236285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131">
+        <v>613.85646268666414</v>
+      </c>
+      <c r="C131">
+        <v>1114.7916391028787</v>
+      </c>
+      <c r="D131">
+        <v>1761.0980455465731</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132">
+        <v>266.98205296421634</v>
+      </c>
+      <c r="C132">
+        <v>736.81074881031134</v>
+      </c>
+      <c r="D132">
+        <v>1030.1583810771149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133">
+        <v>957.69698544360938</v>
+      </c>
+      <c r="C133">
+        <v>1080.5213717163526</v>
+      </c>
+      <c r="D133">
+        <v>2069.6542401745851</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134">
+        <v>1153.8883425461017</v>
+      </c>
+      <c r="C134">
+        <v>656.17482554789694</v>
+      </c>
+      <c r="D134">
+        <v>1848.5974763054724</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135">
+        <v>2331.0364851610557</v>
+      </c>
+      <c r="C135">
+        <v>457.60886451420157</v>
+      </c>
+      <c r="D135">
+        <v>2826.1655971443238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136">
+        <v>681.61327158288566</v>
+      </c>
+      <c r="C136">
+        <v>725.72330936172943</v>
+      </c>
+      <c r="D136">
+        <v>1431.6740387623877</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137">
+        <v>1124.5607685462446</v>
+      </c>
+      <c r="C137">
+        <v>558.40376859221954</v>
+      </c>
+      <c r="D137">
+        <v>1718.456663122716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138">
+        <v>1630.2085961299877</v>
+      </c>
+      <c r="C138">
+        <v>544.29248202129702</v>
+      </c>
+      <c r="D138">
+        <v>2216.0775685899798</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139">
+        <v>883.87240261638294</v>
+      </c>
+      <c r="C139">
+        <v>424.34654616845569</v>
+      </c>
+      <c r="D139">
+        <v>1331.5423458602043</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140">
+        <v>1185.2385078562938</v>
+      </c>
+      <c r="C140">
+        <v>1857.6500821578713</v>
+      </c>
+      <c r="D140">
+        <v>3099.6759915889679</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141">
+        <v>983.99067247796404</v>
+      </c>
+      <c r="C141">
+        <v>1398.0253195621092</v>
+      </c>
+      <c r="D141">
+        <v>2439.8174543572836</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142">
+        <v>589.58536696264446</v>
+      </c>
+      <c r="C142">
+        <v>1127.8949766330211</v>
+      </c>
+      <c r="D142">
+        <v>1748.9162266102887</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143">
+        <v>810.04781978915639</v>
+      </c>
+      <c r="C143">
+        <v>1139.9903651223833</v>
+      </c>
+      <c r="D143">
+        <v>1977.4178249565341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144">
+        <v>360.02125323962508</v>
+      </c>
+      <c r="C144">
+        <v>751.92998442201406</v>
+      </c>
+      <c r="D144">
+        <v>1136.2886954794119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145">
+        <v>519.80596675608786</v>
+      </c>
+      <c r="C145">
+        <v>1318.3973453404751</v>
+      </c>
+      <c r="D145">
+        <v>1877.7516810504437</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146">
+        <v>742.29101089293488</v>
+      </c>
+      <c r="C146">
+        <v>865.82822603017439</v>
+      </c>
+      <c r="D146">
+        <v>1651.7238488466189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147">
+        <v>199.22524406799479</v>
+      </c>
+      <c r="C147">
+        <v>749.91408634045376</v>
+      </c>
+      <c r="D147">
+        <v>960.29399857492774</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>948.595324547102</v>
+      </c>
+      <c r="C148">
+        <v>1825.3957128529055</v>
+      </c>
+      <c r="D148">
+        <v>2819.6237708083313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149">
+        <v>683.63586289322063</v>
+      </c>
+      <c r="C149">
+        <v>1262.9601480975653</v>
+      </c>
+      <c r="D149">
+        <v>1983.1021977174451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <v>494.52357537690074</v>
+      </c>
+      <c r="C150">
+        <v>759.99357674825546</v>
+      </c>
+      <c r="D150">
+        <v>1292.0373995942225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151">
+        <v>558.23520165245236</v>
+      </c>
+      <c r="C151">
+        <v>1437.3353321525362</v>
+      </c>
+      <c r="D151">
+        <v>2029.0345383044262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152">
+        <v>1318.7295343384019</v>
+      </c>
+      <c r="C152">
+        <v>1114.7916391028787</v>
+      </c>
+      <c r="D152">
+        <v>2493.3507572433055</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153">
+        <v>1498.7401609582146</v>
+      </c>
+      <c r="C153">
+        <v>1513.9394592518299</v>
+      </c>
+      <c r="D153">
+        <v>3086.7060544057699</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154">
+        <v>371.14550544646744</v>
+      </c>
+      <c r="C154">
+        <v>1160.1493459379869</v>
+      </c>
+      <c r="D154">
+        <v>1569.8291595959281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155">
+        <v>1495.7062739927121</v>
+      </c>
+      <c r="C155">
+        <v>2147.9394059025631</v>
+      </c>
+      <c r="D155">
+        <v>3731.8689644847013</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156">
+        <v>948.595324547102</v>
+      </c>
+      <c r="C156">
+        <v>1499.8281726809075</v>
+      </c>
+      <c r="D156">
+        <v>2505.2108988028126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157">
+        <v>443.95879261852645</v>
+      </c>
+      <c r="C157">
+        <v>847.68514329613117</v>
+      </c>
+      <c r="D157">
+        <v>1313.9532722476158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158">
+        <v>1045.6797074431806</v>
+      </c>
+      <c r="C158">
+        <v>1124.8711295106805</v>
+      </c>
+      <c r="D158">
+        <v>2227.3382385286641</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159">
+        <v>1176.1368469597865</v>
+      </c>
+      <c r="C159">
+        <v>1601.6310257997056</v>
+      </c>
+      <c r="D159">
+        <v>2837.597456561517</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160">
+        <v>840.386689444181</v>
+      </c>
+      <c r="C160">
+        <v>1002.9092955762789</v>
+      </c>
+      <c r="D160">
+        <v>1881.8302932319334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161">
+        <v>930.39200275408734</v>
+      </c>
+      <c r="C161">
+        <v>1927.1985659717036</v>
+      </c>
+      <c r="D161">
+        <v>2918.4342132702227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162">
+        <v>1022.4199073743285</v>
+      </c>
+      <c r="C162">
+        <v>526.1493992872538</v>
+      </c>
+      <c r="D162">
+        <v>1564.7942785400974</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163">
+        <v>937.47107234025975</v>
+      </c>
+      <c r="C163">
+        <v>485.8314376560466</v>
+      </c>
+      <c r="D163">
+        <v>1458.7946359805583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164">
+        <v>259.90298337804393</v>
+      </c>
+      <c r="C164">
+        <v>683.38944964896189</v>
+      </c>
+      <c r="D164">
+        <v>961.54552639033545</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165">
+        <v>338.78404448110786</v>
+      </c>
+      <c r="C165">
+        <v>1146.0380593670643</v>
+      </c>
+      <c r="D165">
+        <v>1508.1455009235378</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166">
+        <v>165.85248744746772</v>
+      </c>
+      <c r="C166">
+        <v>513.04606175711149</v>
+      </c>
+      <c r="D166">
+        <v>692.08133885587279</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243195">
+    <sortCondition ref="A2:A243195"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64363D75-A9DD-4F5B-B514-8D980E75EC0E}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>1145.7979773047618</v>
+      </c>
+      <c r="C2">
+        <v>698.50868526066449</v>
+      </c>
+      <c r="D2">
+        <v>1892.9815782009721</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/D2</f>
+        <v>0.6052874420435147</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2/D2</f>
+        <v>0.36899919856827362</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(B2-C2)/D2</f>
+        <v>0.23628824347524105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>873.75944606470807</v>
+      </c>
+      <c r="C3">
+        <v>676.33380636350057</v>
+      </c>
+      <c r="D3">
+        <v>1586.5994391548679</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="0">B3/D3</f>
+        <v>0.55071206033586684</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F66" si="1">C3/D3</f>
+        <v>0.4262788638849907</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G66" si="2">(B3-C3)/D3</f>
+        <v>0.12443319645087608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1256.0292037180179</v>
+      </c>
+      <c r="C4">
+        <v>834.58180576598886</v>
+      </c>
+      <c r="D4">
+        <v>2122.0468924986299</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59189512171387082</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39329093467076987</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19860418704310098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>2004.3879885419576</v>
+      </c>
+      <c r="C5">
+        <v>738.82664689187175</v>
+      </c>
+      <c r="D5">
+        <v>2797.9739155238181</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71637122041100565</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26405773220139317</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45231348820961259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>562.28038427312231</v>
+      </c>
+      <c r="C6">
+        <v>881.9554106826572</v>
+      </c>
+      <c r="D6">
+        <v>1473.6435564855883</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38155792952678053</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59848625320629389</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.21692832367951334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>1875.953440335687</v>
+      </c>
+      <c r="C7">
+        <v>904.13028957982124</v>
+      </c>
+      <c r="D7">
+        <v>2838.8992529751258</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66080310471381276</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31847917414903176</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34232393056478105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>831.28502854767362</v>
+      </c>
+      <c r="C8">
+        <v>844.66129617379056</v>
+      </c>
+      <c r="D8">
+        <v>1727.6634225842313</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48116144480516998</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48890384847666102</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.7424036714910478E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9">
+        <v>694.76011510006299</v>
+      </c>
+      <c r="C9">
+        <v>530.1811954503745</v>
+      </c>
+      <c r="D9">
+        <v>1251.3068898530246</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55522759503199715</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42370197091510325</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13152562411689392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>564.30297558345728</v>
+      </c>
+      <c r="C10">
+        <v>594.68993406030609</v>
+      </c>
+      <c r="D10">
+        <v>1186.3725496887578</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47565410690891402</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50126744269017487</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.5613335781260918E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>780.72024578929938</v>
+      </c>
+      <c r="C11">
+        <v>713.62792087236721</v>
+      </c>
+      <c r="D11">
+        <v>1542.009021554805</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50630069920220089</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46279101542014156</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3509683782059265E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>470.25247965288111</v>
+      </c>
+      <c r="C12">
+        <v>587.63429077484477</v>
+      </c>
+      <c r="D12">
+        <v>1089.3226534423491</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43169255515511834</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.53944925217324013</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.10775669701812177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>557.22390599728487</v>
+      </c>
+      <c r="C13">
+        <v>337.66292866136018</v>
+      </c>
+      <c r="D13">
+        <v>920.23835321882507</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60552128049023146</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.36692985842230674</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23859142206792472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>686.66974985872309</v>
+      </c>
+      <c r="C14">
+        <v>427.37039329079619</v>
+      </c>
+      <c r="D14">
+        <v>1145.4760261641425</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59946234942880061</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37309414036532229</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.22636820906347827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>779.7089501341319</v>
+      </c>
+      <c r="C15">
+        <v>568.48325900002135</v>
+      </c>
+      <c r="D15">
+        <v>1381.6562136335908</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56432920319852253</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41145058618089825</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15287861701762423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>858.59001123719577</v>
+      </c>
+      <c r="C16">
+        <v>658.19072362945735</v>
+      </c>
+      <c r="D16">
+        <v>1550.2447393660907</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55384158993391008</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42457213813774825</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12926945179616189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>270.0159399297188</v>
+      </c>
+      <c r="C17">
+        <v>172.35928597341072</v>
+      </c>
+      <c r="D17">
+        <v>449.47365109997986</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60073808390974426</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3834691656598832</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21726891824986103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>1377.3846823381161</v>
+      </c>
+      <c r="C18">
+        <v>492.88708094150786</v>
+      </c>
+      <c r="D18">
+        <v>1915.9044966879478</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71892136832458053</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.25726077776505507</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.46166059055952541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>648.2405149623587</v>
+      </c>
+      <c r="C19">
+        <v>327.58343825355843</v>
+      </c>
+      <c r="D19">
+        <v>1005.2317147457259</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64486675604572585</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32587853471815792</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31898822132756799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>938.48236799542724</v>
+      </c>
+      <c r="C20">
+        <v>425.35449520923584</v>
+      </c>
+      <c r="D20">
+        <v>1393.2446247344719</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67359482414962524</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30529778307258926</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.36829704107703592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21">
+        <v>1401.6557780621358</v>
+      </c>
+      <c r="C21">
+        <v>391.08422782270975</v>
+      </c>
+      <c r="D21">
+        <v>1838.3727392931696</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76244373521392306</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21273391378348905</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.54970982143043401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>1139.7302033737569</v>
+      </c>
+      <c r="C22">
+        <v>554.37197242909883</v>
+      </c>
+      <c r="D22">
+        <v>1744.8052129232158</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65321343318562941</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31772714130095581</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.3354862918846736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1089.1654206153826</v>
+      </c>
+      <c r="C23">
+        <v>674.31790828194028</v>
+      </c>
+      <c r="D23">
+        <v>1813.1723052752754</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.600696038344809</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.37189951904739987</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2287965192974091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>927.35811578858488</v>
+      </c>
+      <c r="C24">
+        <v>50.397452039008989</v>
+      </c>
+      <c r="D24">
+        <v>999.05084341814506</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92823916009692642</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0445332558430686E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87779382753849577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1247.938838476678</v>
+      </c>
+      <c r="C25">
+        <v>167.31954076950984</v>
+      </c>
+      <c r="D25">
+        <v>1439.5958370639605</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86686749596458634</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11622674674494486</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75064074921964152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>962.75346371944681</v>
+      </c>
+      <c r="C26">
+        <v>170.34338789185037</v>
+      </c>
+      <c r="D26">
+        <v>1162.5046131411059</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82817173612590811</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14653136509418216</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.68164037103172592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>445.98138392886142</v>
+      </c>
+      <c r="C27">
+        <v>724.71536032094923</v>
+      </c>
+      <c r="D27">
+        <v>1180.8373516738827</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37768231441583849</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61373004444146106</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.23604773002562257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>704.87307165173786</v>
+      </c>
+      <c r="C28">
+        <v>573.52300420392226</v>
+      </c>
+      <c r="D28">
+        <v>1311.8600803550976</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53730811860739069</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43718305998661044</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10012505862078022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>480.36543620455592</v>
+      </c>
+      <c r="C29">
+        <v>452.56911931030072</v>
+      </c>
+      <c r="D29">
+        <v>954.22983110540781</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50340643369751548</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47427685087777166</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9129582819743888E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>1013.3182464778212</v>
+      </c>
+      <c r="C30">
+        <v>256.01905635816564</v>
+      </c>
+      <c r="D30">
+        <v>1291.6466391689451</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78451661294128983</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19821137499563363</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.58630523794565625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>809.03652413398891</v>
+      </c>
+      <c r="C31">
+        <v>92.731311751776531</v>
+      </c>
+      <c r="D31">
+        <v>926.10529370353822</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87359021661415426</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.100130419707396</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77345979690675826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>371.14550544646744</v>
+      </c>
+      <c r="C32">
+        <v>307.4244574379548</v>
+      </c>
+      <c r="D32">
+        <v>702.90742070219505</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52801477764411431</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4373612347566937</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0653542887420613E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>519.80596675608786</v>
+      </c>
+      <c r="C33">
+        <v>394.10807494505025</v>
+      </c>
+      <c r="D33">
+        <v>940.27962100372531</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55282062393440767</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41913922852475477</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13368139540965293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>418.67640123933927</v>
+      </c>
+      <c r="C34">
+        <v>476.75989628902499</v>
+      </c>
+      <c r="D34">
+        <v>912.67533014928665</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45873531080417856</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52237622793095673</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.3640917126778246E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>477.33154923905346</v>
+      </c>
+      <c r="C35">
+        <v>575.53890228548266</v>
+      </c>
+      <c r="D35">
+        <v>1092.4188204784168</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43694921791077307</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52684821196455556</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.9898994053782419E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>506.65912323891058</v>
+      </c>
+      <c r="C36">
+        <v>381.00473741490794</v>
+      </c>
+      <c r="D36">
+        <v>910.98725772918419</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55616488478868364</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41823278446796014</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13793210032072351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>413.61992296350184</v>
+      </c>
+      <c r="C37">
+        <v>624.92840528371141</v>
+      </c>
+      <c r="D37">
+        <v>1062.885786064986</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38914804242025369</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58795442885478821</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.19880638643453452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>811.05911544432388</v>
+      </c>
+      <c r="C38">
+        <v>947.47209833336899</v>
+      </c>
+      <c r="D38">
+        <v>1788.9530360499086</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45337082589668204</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52962379628781719</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.6252970391135197E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>1173.102959994284</v>
+      </c>
+      <c r="C39">
+        <v>1450.4386696826787</v>
+      </c>
+      <c r="D39">
+        <v>2673.2306060549154</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43883343148069032</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54257895536487166</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.1037455238841813</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>770.60728923762451</v>
+      </c>
+      <c r="C40">
+        <v>789.2240989308807</v>
+      </c>
+      <c r="D40">
+        <v>1588.2250889559068</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48520029975361922</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49692207006357875</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.1721770309959533E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>1008.2617682019837</v>
+      </c>
+      <c r="C41">
+        <v>833.57385672520866</v>
+      </c>
+      <c r="D41">
+        <v>1900.65114798681</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.53048228722558866</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4385727794435812</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>9.1909507782007432E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>556.21261034211739</v>
+      </c>
+      <c r="C42">
+        <v>556.38787051065924</v>
+      </c>
+      <c r="D42">
+        <v>1147.0785460946213</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48489496402475302</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48504775231387109</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.5278828911808188E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>1317.7182386832344</v>
+      </c>
+      <c r="C43">
+        <v>862.80437890783389</v>
+      </c>
+      <c r="D43">
+        <v>2237.3100191658714</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58897436090440192</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38564363969080617</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20333072121359583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>936.45977668509227</v>
+      </c>
+      <c r="C44">
+        <v>535.22094065427541</v>
+      </c>
+      <c r="D44">
+        <v>1514.2712685204701</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61842273320028529</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35345116280071598</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26497157039956931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>1149.8431599254318</v>
+      </c>
+      <c r="C45">
+        <v>644.07943705853484</v>
+      </c>
+      <c r="D45">
+        <v>1840.569391134698</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62472143971521854</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.34993488436829018</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27478655534692836</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>688.69234116905807</v>
+      </c>
+      <c r="C46">
+        <v>721.69151319860873</v>
+      </c>
+      <c r="D46">
+        <v>1430.6650692158107</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48137915434431516</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50444477098625806</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.3065616641942947E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>667.45513241054084</v>
+      </c>
+      <c r="C47">
+        <v>770.07306715605728</v>
+      </c>
+      <c r="D47">
+        <v>1469.9781433236285</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45405786163692285</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52386701846798756</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.9809156831064673E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>613.85646268666414</v>
+      </c>
+      <c r="C48">
+        <v>1114.7916391028787</v>
+      </c>
+      <c r="D48">
+        <v>1761.0980455465731</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34856461526317128</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63300941246396802</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.28444479720079674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1124.5607685462446</v>
+      </c>
+      <c r="C49">
+        <v>558.40376859221954</v>
+      </c>
+      <c r="D49">
+        <v>1718.456663122716</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65440158758658151</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32494492329967101</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32945666428691051</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>1630.2085961299877</v>
+      </c>
+      <c r="C50">
+        <v>544.29248202129702</v>
+      </c>
+      <c r="D50">
+        <v>2216.0775685899798</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73562794878486037</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24561075376418937</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>0.49001719502067104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51">
+        <v>883.87240261638294</v>
+      </c>
+      <c r="C51">
+        <v>424.34654616845569</v>
+      </c>
+      <c r="D51">
+        <v>1331.5423458602043</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66379593962171957</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31868798426708611</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34510795535463346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>1185.2385078562938</v>
+      </c>
+      <c r="C52">
+        <v>1857.6500821578713</v>
+      </c>
+      <c r="D52">
+        <v>3099.6759915889679</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3823749679232481</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59930460060943191</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.21692963268618384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53">
+        <v>983.99067247796404</v>
+      </c>
+      <c r="C53">
+        <v>1398.0253195621092</v>
+      </c>
+      <c r="D53">
+        <v>2439.8174543572836</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40330503854730998</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57300406514650015</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.16969902659919017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54">
+        <v>589.58536696264446</v>
+      </c>
+      <c r="C54">
+        <v>1127.8949766330211</v>
+      </c>
+      <c r="D54">
+        <v>1748.9162266102887</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33711469880142053</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64491080788877031</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.30779610908734983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>519.80596675608786</v>
+      </c>
+      <c r="C55">
+        <v>1318.3973453404751</v>
+      </c>
+      <c r="D55">
+        <v>1877.7516810504437</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27682359281143087</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70211485290906139</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.42529126009763057</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>948.595324547102</v>
+      </c>
+      <c r="C56">
+        <v>1825.3957128529055</v>
+      </c>
+      <c r="D56">
+        <v>2819.6237708083313</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33642620493129061</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64738981553187858</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.31096361060058797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>683.63586289322063</v>
+      </c>
+      <c r="C57">
+        <v>1262.9601480975653</v>
+      </c>
+      <c r="D57">
+        <v>1983.1021977174451</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34473052557759604</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63686084839764445</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.29213032282004836</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>494.52357537690074</v>
+      </c>
+      <c r="C58">
+        <v>759.99357674825546</v>
+      </c>
+      <c r="D58">
+        <v>1292.0373995942225</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38274710587496219</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58821329551833346</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.20546618964337121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>558.23520165245236</v>
+      </c>
+      <c r="C59">
+        <v>1437.3353321525362</v>
+      </c>
+      <c r="D59">
+        <v>2029.0345383044262</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27512355808341471</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70838386681857735</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.43326030873516264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60">
+        <v>1495.7062739927121</v>
+      </c>
+      <c r="C60">
+        <v>2147.9394059025631</v>
+      </c>
+      <c r="D60">
+        <v>3731.8689644847013</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40079281674329637</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57556667352042246</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.17477385677712606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>948.595324547102</v>
+      </c>
+      <c r="C61">
+        <v>1499.8281726809075</v>
+      </c>
+      <c r="D61">
+        <v>2505.2108988028126</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37864888940105429</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="1"/>
+        <v>0.59868339763236844</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.22003450823131421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62">
+        <v>443.95879261852645</v>
+      </c>
+      <c r="C62">
+        <v>847.68514329613117</v>
+      </c>
+      <c r="D62">
+        <v>1313.9532722476158</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33788019863073332</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6451410116328582</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.30726081300212488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1045.6797074431806</v>
+      </c>
+      <c r="C63">
+        <v>1124.8711295106805</v>
+      </c>
+      <c r="D63">
+        <v>2227.3382385286641</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4694750394686063</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50502932605949791</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.5554286590891618E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>1176.1368469597865</v>
+      </c>
+      <c r="C64">
+        <v>1601.6310257997056</v>
+      </c>
+      <c r="D64">
+        <v>2837.597456561517</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41448333139718146</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56443207689525343</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.14994874549807194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65">
+        <v>930.39200275408734</v>
+      </c>
+      <c r="C65">
+        <v>1927.1985659717036</v>
+      </c>
+      <c r="D65">
+        <v>2918.4342132702227</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31879834690929892</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66035360920889163</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.34155526229959265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>1022.4199073743285</v>
+      </c>
+      <c r="C66">
+        <v>526.1493992872538</v>
+      </c>
+      <c r="D66">
+        <v>1564.7942785400974</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65338934414318883</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33624189869746601</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31714744544572282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>937.47107234025975</v>
+      </c>
+      <c r="C67">
+        <v>485.8314376560466</v>
+      </c>
+      <c r="D67">
+        <v>1458.7946359805583</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67:E69" si="3">B67/D67</f>
+        <v>0.64263402758546584</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ref="F67:F69" si="4">C67/D67</f>
+        <v>0.33303621063117306</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" ref="G67:G69" si="5">(B67-C67)/D67</f>
+        <v>0.30959781695429284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <v>259.90298337804393</v>
+      </c>
+      <c r="C68">
+        <v>683.38944964896189</v>
+      </c>
+      <c r="D68">
+        <v>961.54552639033545</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="3"/>
+        <v>0.27029711671971046</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7107198056595635</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.44042268893985304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2">
+        <f>SUM(B2:B68)</f>
+        <v>57661.044370684591</v>
+      </c>
+      <c r="C69" s="2">
+        <f>SUM(C2:C68)</f>
+        <v>50867.156292012543</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69" si="6">B69+C69</f>
+        <v>108528.20066269714</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="3"/>
+        <v>0.53130010466029598</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="4"/>
+        <v>0.46869989533970396</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="5"/>
+        <v>6.260020932059196E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
